--- a/Project/项目主机列表.xlsx
+++ b/Project/项目主机列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BJTT\Desktop\DataBase\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B02D072C-665A-4592-A806-192E9380BAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B32D6E3-3F57-4012-806F-57921FDB077F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{9505419F-880A-4CCD-AF6E-5F3CFF324B21}"/>
   </bookViews>
@@ -553,33 +553,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -605,15 +614,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F65FD3E-212A-4AD7-B5BB-B104312C3F50}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:G6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -976,10 +976,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -994,13 +994,13 @@
       <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1015,14 +1015,14 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="17"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1037,13 +1037,13 @@
       <c r="F5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1058,16 +1058,16 @@
       <c r="F6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
+      <c r="A7" s="17"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1085,239 +1085,239 @@
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
+      <c r="A9" s="17"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="14"/>
+      <c r="A12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="15" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="15"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="21"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="24"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="22" t="s">
+      <c r="F20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G20" s="22" t="s">
+      <c r="G20" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="22" t="s">
+      <c r="G21" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="22" t="s">
+      <c r="F22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="22" t="s">
+      <c r="G22" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E24" s="22" t="s">
+      <c r="E24" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="22" t="s">
+      <c r="F24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="23" t="s">
+      <c r="G24" s="11" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1326,57 +1326,57 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="22" t="s">
+      <c r="E26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="22" t="s">
+      <c r="F26" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F28" s="22" t="s">
+      <c r="F28" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="1"/>
@@ -1392,40 +1392,40 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F30" s="22" t="s">
+      <c r="F30" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="11" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="10" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="1"/>
